--- a/checks/entered_data_1st 10_and_SampleSize_and_Pvalues.xlsx
+++ b/checks/entered_data_1st 10_and_SampleSize_and_Pvalues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\from USB\Data entry job\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/barnetta_qut_edu_au/Documents/fraud/baseline_tables/checks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7607312E-49E0-4913-8FDD-3B09F9A29CCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7607312E-49E0-4913-8FDD-3B09F9A29CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358D527C-7E53-47CD-99DA-B7A1B449F4C3}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="90" windowWidth="24840" windowHeight="15600" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMC links" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="170">
   <si>
     <t>row</t>
   </si>
@@ -552,7 +552,19 @@
     <t>Row 2</t>
   </si>
   <si>
-    <t>Row 1</t>
+    <r>
+      <t xml:space="preserve">Row 1; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>edited by AGB, table transposed</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1231,6 +1243,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1253,10 +1269,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3564,13 +3576,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="43" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="35" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3699,10 +3711,10 @@
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3730,10 +3742,10 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="42"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -3794,19 +3806,19 @@
       <c r="A21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="38"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C22" s="38"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
@@ -3885,10 +3897,10 @@
       <c r="A29" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="38"/>
+      <c r="C29" s="40"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
@@ -3949,46 +3961,46 @@
       <c r="A35" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="38"/>
+      <c r="C35" s="40"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="38"/>
+      <c r="C36" s="40"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="38"/>
+      <c r="C37" s="40"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="38"/>
+      <c r="C38" s="40"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="38"/>
+      <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
@@ -4005,10 +4017,10 @@
       <c r="A41" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="38"/>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
@@ -4160,10 +4172,10 @@
       <c r="A55" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="38"/>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
@@ -4246,10 +4258,10 @@
       <c r="A63" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C63" s="38"/>
+      <c r="C63" s="40"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
@@ -4426,10 +4438,10 @@
       <c r="A79" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="41"/>
+      <c r="C79" s="43"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
@@ -4479,10 +4491,10 @@
       <c r="A84" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="41"/>
+      <c r="C84" s="43"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
@@ -4593,28 +4605,28 @@
       <c r="A94" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C94" s="41"/>
+      <c r="C94" s="43"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="41"/>
+      <c r="C95" s="43"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C96" s="41"/>
+      <c r="C96" s="43"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
@@ -4642,19 +4654,19 @@
       <c r="A99" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C99" s="41"/>
+      <c r="C99" s="43"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="C100" s="41"/>
+      <c r="C100" s="43"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
@@ -4704,10 +4716,10 @@
       <c r="A105" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C105" s="38"/>
+      <c r="C105" s="40"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="27" t="s">
@@ -4801,10 +4813,10 @@
       <c r="A114" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B114" s="37" t="s">
+      <c r="B114" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C114" s="38"/>
+      <c r="C114" s="40"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
@@ -4882,19 +4894,19 @@
       <c r="A121" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B121" s="37" t="s">
+      <c r="B121" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C121" s="38"/>
+      <c r="C121" s="40"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B122" s="37" t="s">
+      <c r="B122" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C122" s="38"/>
+      <c r="C122" s="40"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
@@ -4955,37 +4967,37 @@
       <c r="A128" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="37" t="s">
+      <c r="B128" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C128" s="38"/>
+      <c r="C128" s="40"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B129" s="37" t="s">
+      <c r="B129" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C129" s="38"/>
+      <c r="C129" s="40"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B130" s="37" t="s">
+      <c r="B130" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C130" s="38"/>
+      <c r="C130" s="40"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B131" s="42">
-        <v>1</v>
-      </c>
-      <c r="C131" s="42">
+      <c r="B131" s="34">
+        <v>1</v>
+      </c>
+      <c r="C131" s="34">
         <v>237</v>
       </c>
     </row>
@@ -4993,10 +5005,10 @@
       <c r="A132" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B132" s="42">
-        <v>2</v>
-      </c>
-      <c r="C132" s="42">
+      <c r="B132" s="34">
+        <v>2</v>
+      </c>
+      <c r="C132" s="34">
         <v>241</v>
       </c>
     </row>
@@ -5004,28 +5016,28 @@
       <c r="A133" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B133" s="37" t="s">
+      <c r="B133" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C133" s="38"/>
+      <c r="C133" s="40"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B134" s="37" t="s">
+      <c r="B134" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="38"/>
+      <c r="C134" s="40"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B135" s="42" t="s">
+      <c r="B135" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C135" s="42">
+      <c r="C135" s="34">
         <v>32</v>
       </c>
     </row>
@@ -5033,10 +5045,10 @@
       <c r="A136" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B136" s="42" t="s">
+      <c r="B136" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C136" s="42">
+      <c r="C136" s="34">
         <v>31</v>
       </c>
     </row>
@@ -5044,10 +5056,10 @@
       <c r="A137" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B137" s="42">
-        <v>1</v>
-      </c>
-      <c r="C137" s="42">
+      <c r="B137" s="34">
+        <v>1</v>
+      </c>
+      <c r="C137" s="34">
         <v>932</v>
       </c>
     </row>
@@ -5055,10 +5067,10 @@
       <c r="A138" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B138" s="42">
-        <v>2</v>
-      </c>
-      <c r="C138" s="42">
+      <c r="B138" s="34">
+        <v>2</v>
+      </c>
+      <c r="C138" s="34">
         <v>52</v>
       </c>
     </row>
@@ -5066,10 +5078,10 @@
       <c r="A139" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B139" s="42">
-        <v>1</v>
-      </c>
-      <c r="C139" s="42">
+      <c r="B139" s="34">
+        <v>1</v>
+      </c>
+      <c r="C139" s="34">
         <v>12</v>
       </c>
     </row>
@@ -5077,10 +5089,10 @@
       <c r="A140" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B140" s="42">
-        <v>2</v>
-      </c>
-      <c r="C140" s="42">
+      <c r="B140" s="34">
+        <v>2</v>
+      </c>
+      <c r="C140" s="34">
         <v>6</v>
       </c>
     </row>
@@ -5088,10 +5100,10 @@
       <c r="A141" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B141" s="42">
-        <v>1</v>
-      </c>
-      <c r="C141" s="42">
+      <c r="B141" s="34">
+        <v>1</v>
+      </c>
+      <c r="C141" s="34">
         <v>836</v>
       </c>
       <c r="D141" t="s">
@@ -5102,10 +5114,10 @@
       <c r="A142" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B142" s="42">
-        <v>2</v>
-      </c>
-      <c r="C142" s="42">
+      <c r="B142" s="34">
+        <v>2</v>
+      </c>
+      <c r="C142" s="34">
         <v>711</v>
       </c>
       <c r="D142" t="s">
@@ -5116,10 +5128,10 @@
       <c r="A143" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B143" s="42">
+      <c r="B143" s="34">
         <v>3</v>
       </c>
-      <c r="C143" s="42">
+      <c r="C143" s="34">
         <v>700</v>
       </c>
       <c r="D143" t="s">
@@ -5130,10 +5142,10 @@
       <c r="A144" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B144" s="42">
+      <c r="B144" s="34">
         <v>4</v>
       </c>
-      <c r="C144" s="42">
+      <c r="C144" s="34">
         <v>697</v>
       </c>
       <c r="D144" t="s">
@@ -5144,10 +5156,10 @@
       <c r="A145" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B145" s="42">
+      <c r="B145" s="34">
         <v>5</v>
       </c>
-      <c r="C145" s="42">
+      <c r="C145" s="34">
         <v>844</v>
       </c>
       <c r="D145" t="s">
@@ -5158,10 +5170,10 @@
       <c r="A146" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B146" s="42">
+      <c r="B146" s="34">
         <v>6</v>
       </c>
-      <c r="C146" s="42">
+      <c r="C146" s="34">
         <v>722</v>
       </c>
       <c r="D146" t="s">
@@ -5172,10 +5184,10 @@
       <c r="A147" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B147" s="42">
+      <c r="B147" s="34">
         <v>7</v>
       </c>
-      <c r="C147" s="42">
+      <c r="C147" s="34">
         <v>719</v>
       </c>
       <c r="D147" t="s">
@@ -5186,10 +5198,10 @@
       <c r="A148" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B148" s="42">
-        <v>8</v>
-      </c>
-      <c r="C148" s="42">
+      <c r="B148" s="34">
+        <v>8</v>
+      </c>
+      <c r="C148" s="34">
         <v>702</v>
       </c>
       <c r="D148" t="s">
@@ -5200,10 +5212,10 @@
       <c r="A149" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B149" s="42">
-        <v>1</v>
-      </c>
-      <c r="C149" s="42">
+      <c r="B149" s="34">
+        <v>1</v>
+      </c>
+      <c r="C149" s="34">
         <v>104</v>
       </c>
     </row>
@@ -5211,10 +5223,10 @@
       <c r="A150" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B150" s="42">
-        <v>2</v>
-      </c>
-      <c r="C150" s="42">
+      <c r="B150" s="34">
+        <v>2</v>
+      </c>
+      <c r="C150" s="34">
         <v>138</v>
       </c>
     </row>
@@ -5222,10 +5234,10 @@
       <c r="A151" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B151" s="42">
-        <v>1</v>
-      </c>
-      <c r="C151" s="42">
+      <c r="B151" s="34">
+        <v>1</v>
+      </c>
+      <c r="C151" s="34">
         <v>69</v>
       </c>
     </row>
@@ -5233,10 +5245,10 @@
       <c r="A152" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B152" s="42">
-        <v>2</v>
-      </c>
-      <c r="C152" s="42">
+      <c r="B152" s="34">
+        <v>2</v>
+      </c>
+      <c r="C152" s="34">
         <v>71</v>
       </c>
     </row>
@@ -5244,19 +5256,19 @@
       <c r="A153" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B153" s="37" t="s">
+      <c r="B153" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C153" s="38"/>
+      <c r="C153" s="40"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B154" s="42">
-        <v>1</v>
-      </c>
-      <c r="C154" s="42">
+      <c r="B154" s="34">
+        <v>1</v>
+      </c>
+      <c r="C154" s="34">
         <v>35</v>
       </c>
     </row>
@@ -5264,10 +5276,10 @@
       <c r="A155" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B155" s="42">
-        <v>2</v>
-      </c>
-      <c r="C155" s="42">
+      <c r="B155" s="34">
+        <v>2</v>
+      </c>
+      <c r="C155" s="34">
         <v>49</v>
       </c>
     </row>
@@ -5275,10 +5287,10 @@
       <c r="A156" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B156" s="42">
+      <c r="B156" s="34">
         <v>3</v>
       </c>
-      <c r="C156" s="42">
+      <c r="C156" s="34">
         <v>12</v>
       </c>
     </row>
@@ -5286,10 +5298,10 @@
       <c r="A157" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B157" s="42">
+      <c r="B157" s="34">
         <v>4</v>
       </c>
-      <c r="C157" s="42">
+      <c r="C157" s="34">
         <v>24</v>
       </c>
     </row>
@@ -5297,10 +5309,10 @@
       <c r="A158" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B158" s="42">
-        <v>1</v>
-      </c>
-      <c r="C158" s="42">
+      <c r="B158" s="34">
+        <v>1</v>
+      </c>
+      <c r="C158" s="34">
         <v>53</v>
       </c>
     </row>
@@ -5308,10 +5320,10 @@
       <c r="A159" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B159" s="42">
-        <v>2</v>
-      </c>
-      <c r="C159" s="42">
+      <c r="B159" s="34">
+        <v>2</v>
+      </c>
+      <c r="C159" s="34">
         <v>27</v>
       </c>
     </row>
@@ -5319,10 +5331,10 @@
       <c r="A160" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B160" s="42">
-        <v>1</v>
-      </c>
-      <c r="C160" s="42">
+      <c r="B160" s="34">
+        <v>1</v>
+      </c>
+      <c r="C160" s="34">
         <v>272</v>
       </c>
     </row>
@@ -5330,10 +5342,10 @@
       <c r="A161" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B161" s="42">
-        <v>2</v>
-      </c>
-      <c r="C161" s="42">
+      <c r="B161" s="34">
+        <v>2</v>
+      </c>
+      <c r="C161" s="34">
         <v>279</v>
       </c>
     </row>
@@ -5341,10 +5353,10 @@
       <c r="A162" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B162" s="42">
-        <v>1</v>
-      </c>
-      <c r="C162" s="42">
+      <c r="B162" s="34">
+        <v>1</v>
+      </c>
+      <c r="C162" s="34">
         <v>67</v>
       </c>
     </row>
@@ -5352,10 +5364,10 @@
       <c r="A163" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B163" s="42">
-        <v>2</v>
-      </c>
-      <c r="C163" s="42">
+      <c r="B163" s="34">
+        <v>2</v>
+      </c>
+      <c r="C163" s="34">
         <v>58</v>
       </c>
     </row>
@@ -5363,10 +5375,10 @@
       <c r="A164" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B164" s="42">
-        <v>1</v>
-      </c>
-      <c r="C164" s="42">
+      <c r="B164" s="34">
+        <v>1</v>
+      </c>
+      <c r="C164" s="34">
         <v>292</v>
       </c>
     </row>
@@ -5374,10 +5386,10 @@
       <c r="A165" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B165" s="42">
-        <v>2</v>
-      </c>
-      <c r="C165" s="42">
+      <c r="B165" s="34">
+        <v>2</v>
+      </c>
+      <c r="C165" s="34">
         <v>297</v>
       </c>
     </row>
@@ -5385,19 +5397,19 @@
       <c r="A166" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B166" s="37" t="s">
+      <c r="B166" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C166" s="38"/>
+      <c r="C166" s="40"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B167" s="42">
-        <v>1</v>
-      </c>
-      <c r="C167" s="42">
+      <c r="B167" s="34">
+        <v>1</v>
+      </c>
+      <c r="C167" s="34">
         <v>23</v>
       </c>
     </row>
@@ -5405,10 +5417,10 @@
       <c r="A168" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B168" s="42">
-        <v>2</v>
-      </c>
-      <c r="C168" s="42">
+      <c r="B168" s="34">
+        <v>2</v>
+      </c>
+      <c r="C168" s="34">
         <v>20</v>
       </c>
     </row>
@@ -5416,10 +5428,10 @@
       <c r="A169" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B169" s="42">
+      <c r="B169" s="34">
         <v>3</v>
       </c>
-      <c r="C169" s="42">
+      <c r="C169" s="34">
         <v>16</v>
       </c>
     </row>
@@ -5427,10 +5439,10 @@
       <c r="A170" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B170" s="42">
-        <v>1</v>
-      </c>
-      <c r="C170" s="42">
+      <c r="B170" s="34">
+        <v>1</v>
+      </c>
+      <c r="C170" s="34">
         <v>11</v>
       </c>
     </row>
@@ -5438,10 +5450,10 @@
       <c r="A171" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B171" s="42">
-        <v>2</v>
-      </c>
-      <c r="C171" s="42">
+      <c r="B171" s="34">
+        <v>2</v>
+      </c>
+      <c r="C171" s="34">
         <v>8</v>
       </c>
     </row>
@@ -5449,10 +5461,10 @@
       <c r="A172" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B172" s="42">
+      <c r="B172" s="34">
         <v>3</v>
       </c>
-      <c r="C172" s="42">
+      <c r="C172" s="34">
         <v>9</v>
       </c>
     </row>
@@ -5460,10 +5472,10 @@
       <c r="A173" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B173" s="42">
-        <v>1</v>
-      </c>
-      <c r="C173" s="42">
+      <c r="B173" s="34">
+        <v>1</v>
+      </c>
+      <c r="C173" s="34">
         <v>40</v>
       </c>
     </row>
@@ -5471,10 +5483,10 @@
       <c r="A174" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B174" s="42">
-        <v>2</v>
-      </c>
-      <c r="C174" s="42">
+      <c r="B174" s="34">
+        <v>2</v>
+      </c>
+      <c r="C174" s="34">
         <v>38</v>
       </c>
     </row>
@@ -5482,10 +5494,10 @@
       <c r="A175" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B175" s="42">
-        <v>1</v>
-      </c>
-      <c r="C175" s="42">
+      <c r="B175" s="34">
+        <v>1</v>
+      </c>
+      <c r="C175" s="34">
         <v>311</v>
       </c>
     </row>
@@ -5493,10 +5505,10 @@
       <c r="A176" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B176" s="42">
-        <v>2</v>
-      </c>
-      <c r="C176" s="42">
+      <c r="B176" s="34">
+        <v>2</v>
+      </c>
+      <c r="C176" s="34">
         <v>265</v>
       </c>
     </row>
@@ -5504,10 +5516,10 @@
       <c r="A177" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B177" s="42">
+      <c r="B177" s="34">
         <v>3</v>
       </c>
-      <c r="C177" s="42">
+      <c r="C177" s="34">
         <v>255</v>
       </c>
     </row>
@@ -5515,10 +5527,10 @@
       <c r="A178" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B178" s="42">
-        <v>1</v>
-      </c>
-      <c r="C178" s="42">
+      <c r="B178" s="34">
+        <v>1</v>
+      </c>
+      <c r="C178" s="34">
         <v>88</v>
       </c>
     </row>
@@ -5526,10 +5538,10 @@
       <c r="A179" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B179" s="42">
-        <v>2</v>
-      </c>
-      <c r="C179" s="42">
+      <c r="B179" s="34">
+        <v>2</v>
+      </c>
+      <c r="C179" s="34">
         <v>131</v>
       </c>
     </row>
@@ -5537,19 +5549,19 @@
       <c r="A180" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B180" s="37" t="s">
+      <c r="B180" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="C180" s="38"/>
+      <c r="C180" s="40"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B181" s="42">
-        <v>1</v>
-      </c>
-      <c r="C181" s="42">
+      <c r="B181" s="34">
+        <v>1</v>
+      </c>
+      <c r="C181" s="34">
         <v>16</v>
       </c>
     </row>
@@ -5557,10 +5569,10 @@
       <c r="A182" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B182" s="42">
-        <v>2</v>
-      </c>
-      <c r="C182" s="42">
+      <c r="B182" s="34">
+        <v>2</v>
+      </c>
+      <c r="C182" s="34">
         <v>14</v>
       </c>
     </row>
@@ -5568,28 +5580,28 @@
       <c r="A183" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B183" s="37" t="s">
+      <c r="B183" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C183" s="38"/>
+      <c r="C183" s="40"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B184" s="37" t="s">
+      <c r="B184" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C184" s="38"/>
+      <c r="C184" s="40"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B185" s="42">
-        <v>1</v>
-      </c>
-      <c r="C185" s="42">
+      <c r="B185" s="34">
+        <v>1</v>
+      </c>
+      <c r="C185" s="34">
         <v>17</v>
       </c>
     </row>
@@ -5597,10 +5609,10 @@
       <c r="A186" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B186" s="42">
-        <v>2</v>
-      </c>
-      <c r="C186" s="42">
+      <c r="B186" s="34">
+        <v>2</v>
+      </c>
+      <c r="C186" s="34">
         <v>17</v>
       </c>
     </row>
@@ -5608,10 +5620,10 @@
       <c r="A187" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B187" s="42">
+      <c r="B187" s="34">
         <v>3</v>
       </c>
-      <c r="C187" s="42">
+      <c r="C187" s="34">
         <v>18</v>
       </c>
     </row>
@@ -5619,10 +5631,10 @@
       <c r="A188" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B188" s="42">
-        <v>1</v>
-      </c>
-      <c r="C188" s="42">
+      <c r="B188" s="34">
+        <v>1</v>
+      </c>
+      <c r="C188" s="34">
         <v>51</v>
       </c>
     </row>
@@ -5630,10 +5642,10 @@
       <c r="A189" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B189" s="42">
-        <v>2</v>
-      </c>
-      <c r="C189" s="42">
+      <c r="B189" s="34">
+        <v>2</v>
+      </c>
+      <c r="C189" s="34">
         <v>52</v>
       </c>
     </row>
@@ -5641,10 +5653,10 @@
       <c r="A190" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B190" s="42">
+      <c r="B190" s="34">
         <v>3</v>
       </c>
-      <c r="C190" s="42">
+      <c r="C190" s="34">
         <v>52</v>
       </c>
     </row>
@@ -5652,46 +5664,46 @@
       <c r="A191" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B191" s="37" t="s">
+      <c r="B191" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C191" s="38"/>
+      <c r="C191" s="40"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B192" s="37" t="s">
+      <c r="B192" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C192" s="38"/>
+      <c r="C192" s="40"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B193" s="37" t="s">
+      <c r="B193" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C193" s="38"/>
+      <c r="C193" s="40"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B194" s="37" t="s">
+      <c r="B194" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C194" s="38"/>
+      <c r="C194" s="40"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B195" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C195" s="42">
+      <c r="B195" s="34">
+        <v>1</v>
+      </c>
+      <c r="C195" s="34">
         <v>72</v>
       </c>
       <c r="D195" t="s">
@@ -5702,10 +5714,10 @@
       <c r="A196" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B196" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="C196" s="42">
+      <c r="B196" s="34">
+        <v>2</v>
+      </c>
+      <c r="C196" s="34">
         <v>69</v>
       </c>
       <c r="D196" t="s">
@@ -5716,10 +5728,10 @@
       <c r="A197" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B197" s="42">
-        <v>1</v>
-      </c>
-      <c r="C197" s="42">
+      <c r="B197" s="34">
+        <v>1</v>
+      </c>
+      <c r="C197" s="34">
         <v>111</v>
       </c>
     </row>
@@ -5727,10 +5739,10 @@
       <c r="A198" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B198" s="42">
-        <v>2</v>
-      </c>
-      <c r="C198" s="42">
+      <c r="B198" s="34">
+        <v>2</v>
+      </c>
+      <c r="C198" s="34">
         <v>106</v>
       </c>
     </row>
@@ -5738,10 +5750,10 @@
       <c r="A199" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B199" s="42" t="s">
+      <c r="B199" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="C199" s="42">
+      <c r="C199" s="34">
         <v>10</v>
       </c>
     </row>
@@ -5749,10 +5761,10 @@
       <c r="A200" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B200" s="42" t="s">
+      <c r="B200" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C200" s="42">
+      <c r="C200" s="34">
         <v>10</v>
       </c>
     </row>
@@ -5807,7 +5819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A92" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
@@ -7585,16 +7597,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/checks/entered_data_1st 10_and_SampleSize_and_Pvalues.xlsx
+++ b/checks/entered_data_1st 10_and_SampleSize_and_Pvalues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/barnetta_qut_edu_au/Documents/fraud/baseline_tables/checks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7607312E-49E0-4913-8FDD-3B09F9A29CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{358D527C-7E53-47CD-99DA-B7A1B449F4C3}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{7607312E-49E0-4913-8FDD-3B09F9A29CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EFC361E-D880-4C4D-A80D-4264E531D5E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMC links" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="177">
   <si>
     <t>row</t>
   </si>
@@ -483,16 +483,10 @@
     <t>Table 1a</t>
   </si>
   <si>
-    <t>Table 1b</t>
-  </si>
-  <si>
     <t>no table</t>
   </si>
   <si>
     <t>crossover study</t>
-  </si>
-  <si>
-    <t>row1</t>
   </si>
   <si>
     <t>row6</t>
@@ -564,6 +558,55 @@
         <scheme val="minor"/>
       </rPr>
       <t>edited by AGB, table transposed</t>
+    </r>
+  </si>
+  <si>
+    <t>PMC7528007b</t>
+  </si>
+  <si>
+    <t>edited by AGB</t>
+  </si>
+  <si>
+    <t>edited by AGB, table possibly in appendix, not in main text</t>
+  </si>
+  <si>
+    <t>Edited by AGB, table was in supplement</t>
+  </si>
+  <si>
+    <t>edited by AGB, table was not a baseline table</t>
+  </si>
+  <si>
+    <t>edited by AGB, no control group</t>
+  </si>
+  <si>
+    <t>edited by AGB to exclude</t>
+  </si>
+  <si>
+    <t>edited by AGB to exclude, Amarzaya took table from supplement</t>
+  </si>
+  <si>
+    <r>
+      <t>Table 1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, PMCID edited by AGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - can't really use!</t>
     </r>
   </si>
 </sst>
@@ -1150,7 +1193,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,14 +1290,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1262,14 +1303,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1679,7 +1723,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="246" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,10 +3618,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView topLeftCell="A67" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,10 +3755,10 @@
       <c r="A12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="42"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3742,10 +3786,10 @@
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="42"/>
+      <c r="B15" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="44"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -3806,19 +3850,19 @@
       <c r="A21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="38"/>
+      <c r="B21" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="42"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
@@ -3831,7 +3875,7 @@
         <v>323</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,13 +3895,13 @@
         <v>49</v>
       </c>
       <c r="B25" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="5">
         <v>262</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3865,7 +3909,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" s="5">
         <v>311</v>
@@ -4006,11 +4050,12 @@
       <c r="A40" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="7">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7">
-        <v>72</v>
+      <c r="B40" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4033,7 +4078,7 @@
         <v>266</v>
       </c>
       <c r="D42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,7 +4434,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="27" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="B75" s="7">
         <v>1</v>
@@ -4398,12 +4443,12 @@
         <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="B76" s="7">
         <v>2</v>
@@ -4438,10 +4483,10 @@
       <c r="A79" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="43"/>
+      <c r="C79" s="41"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
@@ -4491,10 +4536,10 @@
       <c r="A84" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B84" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="43"/>
+      <c r="B84" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="41"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
@@ -4533,14 +4578,11 @@
       <c r="A88" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="7">
-        <v>1</v>
-      </c>
-      <c r="C88" s="7">
-        <v>20</v>
-      </c>
-      <c r="D88" t="s">
-        <v>149</v>
+      <c r="B88" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4554,7 +4596,7 @@
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4605,28 +4647,28 @@
       <c r="A94" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C94" s="43"/>
+      <c r="C94" s="41"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B95" s="43" t="s">
+      <c r="B95" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="43"/>
+      <c r="C95" s="41"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="C96" s="43"/>
+      <c r="C96" s="41"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
@@ -4654,19 +4696,19 @@
       <c r="A99" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C99" s="43"/>
+      <c r="C99" s="41"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C100" s="43"/>
+      <c r="B100" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="41"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="27" t="s">
@@ -4829,7 +4871,7 @@
         <v>9181</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,7 +4885,7 @@
         <v>9172</v>
       </c>
       <c r="D116" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4872,51 +4914,51 @@
       <c r="A119" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B119" s="10">
-        <v>1</v>
-      </c>
-      <c r="C119" s="10">
-        <v>13</v>
+      <c r="B119" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D119" s="36" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="10">
-        <v>2</v>
-      </c>
-      <c r="C120" s="10">
-        <v>13</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B120" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="40"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C121" s="40"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B122" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C122" s="40"/>
+        <v>97</v>
+      </c>
+      <c r="B122" s="10">
+        <v>1</v>
+      </c>
+      <c r="C122" s="10">
+        <v>4151</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
         <v>97</v>
       </c>
       <c r="B123" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123" s="10">
-        <v>4151</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4924,21 +4966,21 @@
         <v>97</v>
       </c>
       <c r="B124" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C124" s="10">
-        <v>4134</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B125" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C125" s="10">
-        <v>2070</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4946,154 +4988,161 @@
         <v>98</v>
       </c>
       <c r="B126" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" s="10">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127" s="10">
-        <v>2</v>
-      </c>
-      <c r="C127" s="10">
-        <v>22</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B127" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C127" s="40"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B128" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C128" s="40"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B129" s="39" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C129" s="40"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B130" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C130" s="40"/>
+        <v>102</v>
+      </c>
+      <c r="B130" s="34">
+        <v>1</v>
+      </c>
+      <c r="C130" s="34">
+        <v>293</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>102</v>
       </c>
       <c r="B131" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" s="34">
-        <v>237</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B132" s="34">
-        <v>2</v>
-      </c>
-      <c r="C132" s="34">
-        <v>241</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B132" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132" s="40"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B133" s="39" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C133" s="40"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B134" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C134" s="40"/>
+        <v>105</v>
+      </c>
+      <c r="B134" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C134" s="34">
+        <v>32</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
         <v>105</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C135" s="34">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C136" s="34">
-        <v>31</v>
+        <v>146</v>
+      </c>
+      <c r="C136" s="34"/>
+      <c r="D136" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B137" s="34">
         <v>1</v>
       </c>
       <c r="C137" s="34">
-        <v>932</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B138" s="34">
         <v>2</v>
       </c>
       <c r="C138" s="34">
-        <v>52</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B139" s="34">
         <v>1</v>
       </c>
       <c r="C139" s="34">
-        <v>12</v>
+        <v>836</v>
+      </c>
+      <c r="D139" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B140" s="34">
         <v>2</v>
       </c>
       <c r="C140" s="34">
-        <v>6</v>
+        <v>711</v>
+      </c>
+      <c r="D140" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5101,10 +5150,10 @@
         <v>108</v>
       </c>
       <c r="B141" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C141" s="34">
-        <v>836</v>
+        <v>700</v>
       </c>
       <c r="D141" t="s">
         <v>159</v>
@@ -5115,10 +5164,10 @@
         <v>108</v>
       </c>
       <c r="B142" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C142" s="34">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="D142" t="s">
         <v>160</v>
@@ -5129,10 +5178,10 @@
         <v>108</v>
       </c>
       <c r="B143" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C143" s="34">
-        <v>700</v>
+        <v>844</v>
       </c>
       <c r="D143" t="s">
         <v>161</v>
@@ -5143,10 +5192,10 @@
         <v>108</v>
       </c>
       <c r="B144" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C144" s="34">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="D144" t="s">
         <v>162</v>
@@ -5157,10 +5206,10 @@
         <v>108</v>
       </c>
       <c r="B145" s="34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" s="34">
-        <v>844</v>
+        <v>719</v>
       </c>
       <c r="D145" t="s">
         <v>163</v>
@@ -5171,10 +5220,10 @@
         <v>108</v>
       </c>
       <c r="B146" s="34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" s="34">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="D146" t="s">
         <v>164</v>
@@ -5182,94 +5231,88 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B147" s="34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C147" s="34">
-        <v>719</v>
-      </c>
-      <c r="D147" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B148" s="34">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C148" s="34">
-        <v>702</v>
-      </c>
-      <c r="D148" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B149" s="34">
         <v>1</v>
       </c>
       <c r="C149" s="34">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B150" s="34">
         <v>2</v>
       </c>
       <c r="C150" s="34">
-        <v>138</v>
+        <v>71</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B151" s="34">
-        <v>1</v>
-      </c>
-      <c r="C151" s="34">
-        <v>69</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B151" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="40"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B152" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" s="34">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B153" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C153" s="40"/>
+        <v>112</v>
+      </c>
+      <c r="B153" s="34">
+        <v>2</v>
+      </c>
+      <c r="C153" s="34">
+        <v>49</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
         <v>112</v>
       </c>
       <c r="B154" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C154" s="34">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5277,162 +5320,162 @@
         <v>112</v>
       </c>
       <c r="B155" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C155" s="34">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B156" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C156" s="34">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B157" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C157" s="34">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B158" s="34">
         <v>1</v>
       </c>
       <c r="C158" s="34">
-        <v>53</v>
+        <v>272</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B159" s="34">
         <v>2</v>
       </c>
       <c r="C159" s="34">
-        <v>27</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B160" s="34">
         <v>1</v>
       </c>
       <c r="C160" s="34">
-        <v>272</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B161" s="34">
         <v>2</v>
       </c>
       <c r="C161" s="34">
-        <v>279</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B162" s="34">
         <v>1</v>
       </c>
       <c r="C162" s="34">
-        <v>67</v>
+        <v>292</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B163" s="34">
         <v>2</v>
       </c>
       <c r="C163" s="34">
-        <v>58</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B164" s="34">
-        <v>1</v>
-      </c>
-      <c r="C164" s="34">
-        <v>292</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B164" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" s="40"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B165" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" s="34">
-        <v>297</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B166" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C166" s="40"/>
+        <v>118</v>
+      </c>
+      <c r="B166" s="34">
+        <v>2</v>
+      </c>
+      <c r="C166" s="34">
+        <v>20</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B167" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C167" s="34">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B168" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" s="34">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B169" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" s="34">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -5440,54 +5483,54 @@
         <v>119</v>
       </c>
       <c r="B170" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C170" s="34">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B171" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" s="34">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B172" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" s="34">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B173" s="34">
         <v>1</v>
       </c>
       <c r="C173" s="34">
-        <v>40</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B174" s="34">
         <v>2</v>
       </c>
       <c r="C174" s="34">
-        <v>38</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -5495,136 +5538,136 @@
         <v>121</v>
       </c>
       <c r="B175" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C175" s="34">
-        <v>311</v>
+        <v>255</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B176" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" s="34">
-        <v>265</v>
+        <v>88</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B177" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" s="34">
-        <v>255</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B178" s="34">
-        <v>1</v>
-      </c>
-      <c r="C178" s="34">
-        <v>88</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B178" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C178" s="40"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B179" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C179" s="34">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B180" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="C180" s="40"/>
+        <v>124</v>
+      </c>
+      <c r="B180" s="34">
+        <v>2</v>
+      </c>
+      <c r="C180" s="34">
+        <v>14</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B181" s="34">
-        <v>1</v>
-      </c>
-      <c r="C181" s="34">
-        <v>16</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B181" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C181" s="40"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B182" s="34">
-        <v>2</v>
-      </c>
-      <c r="C182" s="34">
-        <v>14</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B182" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C182" s="40"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B183" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C183" s="40"/>
+        <v>127</v>
+      </c>
+      <c r="B183" s="34">
+        <v>1</v>
+      </c>
+      <c r="C183" s="34">
+        <v>17</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B184" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C184" s="40"/>
+        <v>127</v>
+      </c>
+      <c r="B184" s="34">
+        <v>2</v>
+      </c>
+      <c r="C184" s="34">
+        <v>17</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B185" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C185" s="34">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B186" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186" s="34">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B187" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C187" s="34">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -5632,162 +5675,133 @@
         <v>128</v>
       </c>
       <c r="B188" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C188" s="34">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B189" s="34">
-        <v>2</v>
-      </c>
-      <c r="C189" s="34">
-        <v>52</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B189" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C189" s="40"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B190" s="34">
-        <v>3</v>
-      </c>
-      <c r="C190" s="34">
-        <v>52</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B190" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C190" s="40"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B191" s="39" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C191" s="40"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B192" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C192" s="40"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B193" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C193" s="40"/>
+        <v>133</v>
+      </c>
+      <c r="B193" s="34">
+        <v>1</v>
+      </c>
+      <c r="C193" s="34">
+        <v>72</v>
+      </c>
+      <c r="D193" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B194" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C194" s="40"/>
+        <v>133</v>
+      </c>
+      <c r="B194" s="34">
+        <v>2</v>
+      </c>
+      <c r="C194" s="34">
+        <v>69</v>
+      </c>
+      <c r="D194" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B195" s="34">
         <v>1</v>
       </c>
       <c r="C195" s="34">
-        <v>72</v>
-      </c>
-      <c r="D195" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B196" s="34">
         <v>2</v>
       </c>
       <c r="C196" s="34">
-        <v>69</v>
-      </c>
-      <c r="D196" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B197" s="34">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="B197" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="C197" s="34">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B198" s="34">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="B198" s="34" t="s">
+        <v>155</v>
       </c>
       <c r="C198" s="34">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B199" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C199" s="34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B200" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C200" s="34">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="B96:C96"/>
     <mergeCell ref="B99:C99"/>
@@ -5797,17 +5811,24 @@
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B120:C120"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5817,10 +5838,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5923,7 +5944,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5956,7 +5977,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6179,7 +6200,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -6190,7 +6211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>33</v>
       </c>
@@ -6198,10 +6219,13 @@
         <v>68</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -6212,7 +6236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <v>35</v>
       </c>
@@ -6223,7 +6247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -6234,7 +6258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <v>37</v>
       </c>
@@ -6245,7 +6269,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -6256,7 +6280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>39</v>
       </c>
@@ -6267,7 +6291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -6278,7 +6302,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
         <v>41</v>
       </c>
@@ -6289,7 +6313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -6297,10 +6321,13 @@
         <v>77</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
         <v>43</v>
       </c>
@@ -6311,7 +6338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -6322,7 +6349,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>45</v>
       </c>
@@ -6333,7 +6360,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -6344,7 +6371,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <v>47</v>
       </c>
@@ -6355,7 +6382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -6366,7 +6393,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
         <v>49</v>
       </c>
@@ -6374,10 +6401,10 @@
         <v>84</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -6388,7 +6415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
         <v>51</v>
       </c>
@@ -6399,7 +6426,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -6410,7 +6437,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
         <v>53</v>
       </c>
@@ -6421,7 +6448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -6432,7 +6459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="33">
         <v>55</v>
       </c>
@@ -6443,7 +6470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -6454,7 +6481,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="33">
         <v>57</v>
       </c>
@@ -6465,7 +6492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -6476,7 +6503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="33">
         <v>59</v>
       </c>
@@ -6484,10 +6511,13 @@
         <v>94</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6498,7 +6528,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="33">
         <v>61</v>
       </c>
@@ -6509,7 +6539,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6520,7 +6550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
         <v>63</v>
       </c>
@@ -6531,7 +6561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6539,10 +6569,10 @@
         <v>99</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="33">
         <v>65</v>
       </c>
@@ -6553,7 +6583,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -6564,7 +6594,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="33">
         <v>67</v>
       </c>
@@ -6575,7 +6605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -6586,7 +6616,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="33">
         <v>69</v>
       </c>
@@ -6597,7 +6627,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -6608,7 +6638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="33">
         <v>71</v>
       </c>
@@ -6616,10 +6646,13 @@
         <v>106</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -6630,7 +6663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="33">
         <v>73</v>
       </c>
@@ -6641,7 +6674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -6652,7 +6685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="33">
         <v>75</v>
       </c>
@@ -6663,7 +6696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -6674,7 +6707,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="33">
         <v>77</v>
       </c>
@@ -6685,7 +6718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -6696,7 +6729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="33">
         <v>79</v>
       </c>
@@ -6707,7 +6740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -6718,7 +6751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="33">
         <v>81</v>
       </c>
@@ -6729,7 +6762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -6737,10 +6770,10 @@
         <v>117</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="33">
         <v>83</v>
       </c>
@@ -6751,7 +6784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -6759,10 +6792,13 @@
         <v>119</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="33">
         <v>85</v>
       </c>
@@ -6773,7 +6809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -6784,7 +6820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="33">
         <v>87</v>
       </c>
@@ -6795,7 +6831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -6803,10 +6839,10 @@
         <v>123</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="33">
         <v>89</v>
       </c>
@@ -6817,7 +6853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -6828,7 +6864,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="33">
         <v>91</v>
       </c>
@@ -6836,10 +6872,10 @@
         <v>126</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -6850,7 +6886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="33">
         <v>93</v>
       </c>
@@ -6861,7 +6897,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -6872,7 +6908,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="33">
         <v>95</v>
       </c>
@@ -6940,6 +6976,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7597,16 +7634,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
